--- a/fuentes/contenidos/grado04/guion09/EsqueletoGuion_CS_04_09_CO.xlsx
+++ b/fuentes/contenidos/grado04/guion09/EsqueletoGuion_CS_04_09_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="13125" tabRatio="729" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="13125" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="67">
   <si>
     <t>FICHA</t>
   </si>
@@ -218,13 +218,22 @@
   </si>
   <si>
     <t>Mapa Conceptual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los territorios indígenas </t>
+  </si>
+  <si>
+    <t>Competencias: Titulación colectiva de los territorios afrocolombianos</t>
+  </si>
+  <si>
+    <t>Competencias: Competencias: Titulación colectiva de los territorios afrocolombianos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +282,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -774,9 +776,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="401">
@@ -1460,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1611,12 +1615,12 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.140625" customWidth="1"/>
+    <col min="1" max="1" width="97.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1880,7 +1884,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -2288,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,7 +2838,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -2964,7 +2968,7 @@
       <c r="D31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H31" s="2"/>
@@ -2985,7 +2989,7 @@
       <c r="E32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -3094,7 +3098,7 @@
       <c r="D38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H38" s="2"/>
@@ -3152,7 +3156,7 @@
       <c r="D41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H41" s="2"/>
@@ -3170,7 +3174,7 @@
       <c r="D42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="19" t="s">
         <v>51</v>
       </c>
       <c r="H42" s="2"/>
@@ -3189,14 +3193,10 @@
         <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
@@ -3211,10 +3211,10 @@
         <v>37</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>49</v>
@@ -3233,10 +3233,14 @@
         <v>37</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
@@ -3366,7 +3370,7 @@
       <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I53" s="8" t="s">
@@ -3446,7 +3450,7 @@
         <v>54</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>49</v>
@@ -3511,9 +3515,25 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H61" s="2"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H63" s="2"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H64" s="2"/>
+      <c r="I64" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado04/guion09/EsqueletoGuion_CS_04_09_CO.xlsx
+++ b/fuentes/contenidos/grado04/guion09/EsqueletoGuion_CS_04_09_CO.xlsx
@@ -294,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +311,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -739,7 +745,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -775,11 +781,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1454,7 +1469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2294,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2853,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -2968,7 +2983,7 @@
       <c r="D31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>52</v>
       </c>
       <c r="H31" s="2"/>
@@ -3098,7 +3113,7 @@
       <c r="D38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>52</v>
       </c>
       <c r="H38" s="2"/>
@@ -3156,7 +3171,7 @@
       <c r="D41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>52</v>
       </c>
       <c r="H41" s="2"/>
@@ -3174,7 +3189,7 @@
       <c r="D42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>51</v>
       </c>
       <c r="H42" s="2"/>
@@ -3267,135 +3282,166 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="8"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="8"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="8"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="8"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="8"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="19"/>
+      <c r="D54" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="24" t="s">
         <v>49</v>
       </c>
       <c r="J54" s="2"/>
@@ -3459,57 +3505,69 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J60" s="2"/>
